--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/8_Antalya_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/8_Antalya_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B71039-6192-449F-A312-9211215FE2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D82C9AF2-C77E-4976-AB42-A77A3685D1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{F99A8BC7-FED0-4B8D-9162-6072D6E95E74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{307499B2-98E5-4B23-8C96-BA17128DA2EF}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -801,15 +801,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1048F149-AD7D-4FF4-B3BC-FB2F446CB56C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3886A9F0-2B37-4546-A61A-8F1FB10A062B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{FE707945-CA44-4D43-B219-984DE0414384}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{2C414D6D-EB7E-42FD-AFF0-38197049093D}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{5A92C0ED-1D3C-433A-85A5-39D02DE18D3D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E353C527-6A79-40BA-BDBC-0ADB08CD67F5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B246C01C-6144-4D3F-B6BB-A836C5BF6689}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{1C46E7F7-E44B-4D51-B6F2-302EA3839C81}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{03D7016A-AE9E-497E-AE10-E81306FBB302}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1F9A6E4C-CC5B-4B31-AED1-925F21F6CDB7}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A37FAB2E-7109-4307-9415-BBC76B737A33}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{AF8FF8BA-488C-4F7D-B2B8-8C1E5EC397C7}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{13DED6E6-0D41-42FA-8255-34C02B5683F1}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{7150C5BE-0F9A-457A-A458-24B8D67F49E2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A7D26AF0-A48D-4FAE-ABA4-2979E98A156B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D81D30BA-DDAF-431D-BDB5-8E5CD2AC8784}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{DE9DCD3E-D3C0-40F7-B6E2-070C5B6ABAB1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{94A1A987-3F61-4CF6-A66E-22DEB33AB8BA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B55CEC2-D61E-44B3-86E8-DA07A1A3EFFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74E54C4-4EB5-4506-BD0A-1A7F9D19F1A9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2502,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC02337-DEB8-4D13-B7F2-43CE0FAAE4FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3421EE-9471-44EB-BE9A-16F3AB683955}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3831,7 +3831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADAACAA-5835-44D5-ADE1-4FB5D5B79196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF7759A-6DB0-4702-B10B-728CE472DEC3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5156,7 +5156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAAFD69-03E7-41B0-9CB3-1A3866B3B78F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569D779B-2AFA-44F4-9D1A-42761A96F3D4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6479,7 +6479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10527686-F1DF-4028-84A4-0023508D9FC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA29B35-B805-4D0F-92B0-17271F118063}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7800,7 +7800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB23151-D305-447F-8BCD-3FE643178848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D0784A-D50A-4875-9F9A-E2CE386CB798}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
